--- a/medicine/Pharmacie/British_National_Formulary/British_National_Formulary.xlsx
+++ b/medicine/Pharmacie/British_National_Formulary/British_National_Formulary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le British National Formulary (BNF) est un ouvrage proche des pharmacopées qui contient un large spectre d'information sur les prescriptions en pharmacie, entre autres des indications, des effets secondaires les coûts des prescriptions de tous les médicaments disponibles en Grande-Bretagne.
